--- a/NBASponserships1.xlsx
+++ b/NBASponserships1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/544eb1111fb4475e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A58E012E-BE44-4BB1-827F-A3F122A12E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{A58E012E-BE44-4BB1-827F-A3F122A12E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B9AF9D8-E194-4951-90B4-FF8B3E65EA3C}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="4125" windowWidth="21600" windowHeight="11835" xr2:uid="{73FDB64A-C428-4F1A-8DF6-10DC64773788}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{73FDB64A-C428-4F1A-8DF6-10DC64773788}"/>
   </bookViews>
   <sheets>
     <sheet name="NBASponserships1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
   <si>
     <t>Atlanta Hawks</t>
   </si>
@@ -80,9 +80,6 @@
     <t>15 mil per year</t>
   </si>
   <si>
-    <t>per year</t>
-  </si>
-  <si>
     <t>300 mil total</t>
   </si>
   <si>
@@ -102,10 +99,6 @@
   </si>
   <si>
     <t>American Airlines</t>
-  </si>
-  <si>
-    <t>United Airlines
-/United Center Joint Venture</t>
   </si>
   <si>
     <t>1994 - present (renewed in 
@@ -115,10 +108,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Gainbridge Insurance Agency LLC /Group One
- Thousand One LLC</t>
-  </si>
-  <si>
     <t>35 mil per year</t>
   </si>
   <si>
@@ -137,35 +126,7 @@
     <t>Wintrust Financial</t>
   </si>
   <si>
-    <t>Michelob Ultra</t>
-  </si>
-  <si>
-    <t>crypto.com center</t>
-  </si>
-  <si>
-    <t>Barclays Center</t>
-  </si>
-  <si>
-    <t>Footprint Center</t>
-  </si>
-  <si>
-    <t>Amazon/ Climate 
-Pledge Arena</t>
-  </si>
-  <si>
-    <t>Gateway Center Arena</t>
-  </si>
-  <si>
     <t>1.5 mil per year</t>
-  </si>
-  <si>
-    <t>College Park Center</t>
-  </si>
-  <si>
-    <t>Gainbridge</t>
-  </si>
-  <si>
-    <t>6.5 mil per year</t>
   </si>
   <si>
     <t>1990 - present (3 to 5 year
@@ -220,9 +181,6 @@
     <t>Chase</t>
   </si>
   <si>
-    <t>Tenure of Sponsorships</t>
-  </si>
-  <si>
     <t>Shared Sponsorships</t>
   </si>
   <si>
@@ -232,9 +190,6 @@
     <t>195 mil total</t>
   </si>
   <si>
-    <t>Sponsorship Start Year</t>
-  </si>
-  <si>
     <t xml:space="preserve"> N/A</t>
   </si>
   <si>
@@ -263,6 +218,106 @@
   </si>
   <si>
     <t>(WNBA) Minnesota Lynx</t>
+  </si>
+  <si>
+    <t>Gateway Center</t>
+  </si>
+  <si>
+    <t>1.138B</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>44B</t>
+  </si>
+  <si>
+    <t>aprox 3 Trillion</t>
+  </si>
+  <si>
+    <t>Michelob Ultra /
+Anheuser-Busch</t>
+  </si>
+  <si>
+    <t>31,207 mil</t>
+  </si>
+  <si>
+    <t>28B</t>
+  </si>
+  <si>
+    <t>Barclays Bank</t>
+  </si>
+  <si>
+    <t>cost per year</t>
+  </si>
+  <si>
+    <t>Naming Rights Sponsorship Start Year</t>
+  </si>
+  <si>
+    <t>Tenure of Naming Rights Sponsorships</t>
+  </si>
+  <si>
+    <t>Team Sponorship Start Year</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>1990?</t>
+  </si>
+  <si>
+    <t>Company Worth in NR Sponsorship Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 years</t>
+  </si>
+  <si>
+    <t>10 mil per year</t>
+  </si>
+  <si>
+    <t>300 mil - 400 mil</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Gainbridge Insurance Agency/Group 1001</t>
+  </si>
+  <si>
+    <t>5 mil per year</t>
+  </si>
+  <si>
+    <t>400mil/200 mil total</t>
+  </si>
+  <si>
+    <t>100.9B</t>
+  </si>
+  <si>
+    <t>66.57B</t>
+  </si>
+  <si>
+    <t>1,629.28B</t>
+  </si>
+  <si>
+    <t>36 mil total (not disclosed)</t>
+  </si>
+  <si>
+    <t>United Airlines</t>
+  </si>
+  <si>
+    <t>315.72B</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Not Sponsored</t>
+  </si>
+  <si>
+    <t>23.6 B</t>
+  </si>
+  <si>
+    <t>&lt; 100 mil total</t>
   </si>
 </sst>
 </file>
@@ -298,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,6 +363,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,10 +385,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,573 +684,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2412D5BC-4E27-4950-9CAB-958A3E86CA2F}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
         <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5">
+        <v>-740936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>2016</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1146387940.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2015</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>1990</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-137572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2">
         <v>2020</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
+      <c r="D11" s="2">
+        <v>2021</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>2018</v>
       </c>
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="D12" s="2">
+        <v>2018</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1994</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>1999</v>
       </c>
-      <c r="D14" t="s">
-        <v>68</v>
+      <c r="D14" s="2">
+        <v>2001</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D15" s="2">
         <v>2019</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
       <c r="H15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2">
         <v>2021</v>
       </c>
-      <c r="D16" t="s">
-        <v>66</v>
+      <c r="D16" s="2">
+        <v>2021</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
+      <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D19" t="s">
         <v>18</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>2021</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
+      <c r="D20" s="2">
+        <v>2021</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>2021</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
+      <c r="D21" s="2">
+        <v>2021</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
         <v>12</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-137572</v>
       </c>
     </row>
     <row r="33" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>